--- a/target/classes/TestData/Controller.xlsx
+++ b/target/classes/TestData/Controller.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17160" windowHeight="5328"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="15960" windowHeight="5172"/>
   </bookViews>
   <sheets>
-    <sheet name="Crig" sheetId="2" r:id="rId1"/>
-    <sheet name="Detailpage" sheetId="1" r:id="rId2"/>
+    <sheet name="Detailpage" sheetId="1" r:id="rId1"/>
+    <sheet name="Crig" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>mngr258374</t>
+  </si>
+  <si>
+    <t>TcName</t>
   </si>
 </sst>
 </file>
@@ -449,9 +452,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30654</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>19703</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30655</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>19703</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30656</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>19703</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30657</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>19703</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30658</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>19703</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>0.2</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30659</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>19703</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30660</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>19703</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30661</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>19703</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -511,370 +879,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30654</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>19703</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>0.2</v>
-      </c>
-      <c r="L2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30655</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>19703</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>30656</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>19703</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30657</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>19703</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30658</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>19703</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.2</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30659</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>19703</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30660</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>19703</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>0.2</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30661</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>19703</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
-      <c r="L9">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
